--- a/大学信息技术/期末考试-复习/复习题/第4题/HExcel.xlsx
+++ b/大学信息技术/期末考试-复习/复习题/第4题/HExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\3\EXCEL\EXCEL\H卷EXCEL\19-H卷EXCEL素材\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\期末考试-复习\复习题\第4题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64ED22A-00A8-4CD4-A2F7-595C67C3EA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83814E7-63D6-4E78-9203-A3CCA4E1494C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1038" yWindow="3666" windowWidth="17142" windowHeight="13008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,13 +150,28 @@
   <si>
     <t>销售额统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京 汇总</t>
+  </si>
+  <si>
+    <t>广州 汇总</t>
+  </si>
+  <si>
+    <t>武汉 汇总</t>
+  </si>
+  <si>
+    <t>珠海 汇总</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +191,14 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -212,11 +233,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -227,6 +260,1157 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>月销售数据图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>销售额</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="0"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1号</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2号</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3号</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4号</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5号</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6号</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7号</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8号</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9号</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10号</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11号</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12号</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13号</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14号</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15号</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16号</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17号</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18号</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19号</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20号</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4590</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6834</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9078</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13566</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14688</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15810</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16932</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18054</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21420</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28C1-44C8-B695-A5B0C5D72287}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="401193288"/>
+        <c:axId val="401193616"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="401193288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401193616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401193616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401193288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="293">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4D8083-9799-446D-A72B-A1DC28BDDBF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,18 +1678,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="3"/>
-    <col min="3" max="3" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="3"/>
+    <col min="1" max="2" width="8.75" style="3"/>
+    <col min="3" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -519,7 +1703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -529,11 +1713,11 @@
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>2346</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -543,11 +1727,11 @@
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>3468</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -557,11 +1741,11 @@
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>4590</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -571,11 +1755,11 @@
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>5712</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -585,11 +1769,11 @@
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>6834</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -599,11 +1783,11 @@
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>7956</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -613,11 +1797,11 @@
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>9078</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -627,11 +1811,11 @@
       <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>10200</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -641,11 +1825,11 @@
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>11322</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -655,11 +1839,11 @@
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>12444</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -669,11 +1853,11 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>13566</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -683,11 +1867,11 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>14688</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -697,11 +1881,11 @@
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>15810</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -711,11 +1895,11 @@
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>16932</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -725,11 +1909,11 @@
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>18054</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -739,11 +1923,11 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>19176</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -753,11 +1937,11 @@
       <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>20298</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -767,11 +1951,11 @@
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>21420</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -781,11 +1965,11 @@
       <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>22542</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -795,20 +1979,26 @@
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>23664</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <f>AVERAGE(D3:D22)</f>
+        <v>13005</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D3:D22">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -816,18 +2006,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE1FA92-ED7F-42C2-B3D9-B3B9FBF89A1C}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C21" sqref="A1:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="3"/>
+    <col min="1" max="2" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -838,18 +2028,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v>15810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -860,73 +2050,72 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>21420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1">
+        <f>SUBTOTAL(9,C2:C6)</f>
+        <v>62220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4590</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8" s="1">
         <v>6834</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7956</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+        <v>11322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -934,131 +2123,186 @@
         <v>29</v>
       </c>
       <c r="C10" s="1">
-        <v>11322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+        <v>18054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
-        <v>12444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+        <v>20298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>16932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1">
-        <v>13566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1">
-        <v>14688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" s="1">
-        <v>15810</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
-        <v>16932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+        <v>13566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>22542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1">
+        <f>SUBTOTAL(9,C8:C16)</f>
+        <v>124338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>19176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>23664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1">
+        <f>SUBTOTAL(9,C18:C20)</f>
+        <v>48552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
-        <v>18054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C22" s="1">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>19176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="1">
-        <v>20298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C23" s="1">
+        <v>14688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1">
-        <v>21420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1">
-        <v>22542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1">
-        <v>23664</v>
+      <c r="C24" s="1">
+        <v>7956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1">
+        <f>SUBTOTAL(9,C22:C24)</f>
+        <v>24990</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1">
+        <f>SUBTOTAL(9,C2:C24)</f>
+        <v>260100</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
+    <sortCondition ref="A2:A24"/>
+    <sortCondition descending="1" ref="B2:B24"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1068,13 +2312,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B2B29A-2576-420F-80AE-69D3CFFAEF94}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +2326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +2334,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +2342,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +2350,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +2358,7 @@
         <v>5712</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1122,7 +2366,7 @@
         <v>6834</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1130,7 +2374,7 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +2382,7 @@
         <v>9078</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +2390,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +2398,7 @@
         <v>11322</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1162,7 +2406,7 @@
         <v>12444</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1170,7 +2414,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +2422,7 @@
         <v>14688</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1186,7 +2430,7 @@
         <v>15810</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1194,7 +2438,7 @@
         <v>16932</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1202,7 +2446,7 @@
         <v>18054</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +2454,7 @@
         <v>19176</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1218,7 +2462,7 @@
         <v>20298</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +2470,7 @@
         <v>21420</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1234,7 +2478,7 @@
         <v>22542</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1245,5 +2489,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>